--- a/biology/Zoologie/Halgerda_indotessellata/Halgerda_indotessellata.xlsx
+++ b/biology/Zoologie/Halgerda_indotessellata/Halgerda_indotessellata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halgerda indotessellata est une espèce de nudibranche du genre Halgerda et de la famille des Discodorididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sur la base d'un spécimen originaire du Mozambique et est présente dans l'océan indien[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sur la base d'un spécimen originaire du Mozambique et est présente dans l'océan indien.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Halgerda indotessellata se rencontre à une profondeur de 20 à 25 m[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Halgerda indotessellata se rencontre à une profondeur de 20 à 25 m.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			vue de dessus
@@ -606,9 +624,11 @@
           <t>Espèce similaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Halgerda indotessellata peut être confondue avec Halgerda tessellata[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Halgerda indotessellata peut être confondue avec Halgerda tessellata.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Tibiriçá, Y., Pola, M., Cervera J.L. 2018. Systematics of the genus Halgerda Bergh, 1880 (Heterobranchia : Nudibranchia) of Mozambique with descriptions of six new species. Invertebrate Systematics, 32(6): 1388-1421.</t>
         </is>
